--- a/data/trans_orig/P70D_R_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P70D_R_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>13248</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7442</v>
+        <v>7179</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21326</v>
+        <v>22497</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07456781615288718</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04188550311426559</v>
+        <v>0.04040927176699951</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1200315763922656</v>
+        <v>0.1266256454749318</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -762,19 +762,19 @@
         <v>24151</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16174</v>
+        <v>16747</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34184</v>
+        <v>32842</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1421215478089955</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09518177035506767</v>
+        <v>0.09855488667087919</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2011672273956001</v>
+        <v>0.1932671123195625</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -783,19 +783,19 @@
         <v>37399</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26671</v>
+        <v>27185</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49387</v>
+        <v>49230</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1075926565398916</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07672869571713062</v>
+        <v>0.07820765351338267</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1420792172374238</v>
+        <v>0.1416276584641314</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>164421</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>156343</v>
+        <v>155172</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>170227</v>
+        <v>170490</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9254321838471128</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8799684236077346</v>
+        <v>0.8733743545250683</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9581144968857358</v>
+        <v>0.9595907282330012</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>177</v>
@@ -833,19 +833,19 @@
         <v>145779</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>135746</v>
+        <v>137088</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>153756</v>
+        <v>153183</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8578784521910047</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7988327726044</v>
+        <v>0.8067328876804375</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9048182296449323</v>
+        <v>0.9014451133291207</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>308</v>
@@ -854,19 +854,19 @@
         <v>310200</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>298212</v>
+        <v>298369</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>320928</v>
+        <v>320414</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8924073434601084</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8579207827625762</v>
+        <v>0.8583723415358687</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9232713042828691</v>
+        <v>0.9217923464866176</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>26062</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16768</v>
+        <v>17272</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38467</v>
+        <v>38975</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05119370129854978</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03293675680003844</v>
+        <v>0.03392724062183667</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07556172444967063</v>
+        <v>0.07655800590041859</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -979,19 +979,19 @@
         <v>26723</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19207</v>
+        <v>18791</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37454</v>
+        <v>38123</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.07415816334592891</v>
+        <v>0.07415816334592892</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05330089203372023</v>
+        <v>0.05214713768587674</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1039383606589218</v>
+        <v>0.1057940927552294</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>62</v>
@@ -1000,19 +1000,19 @@
         <v>52785</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40120</v>
+        <v>40781</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69349</v>
+        <v>69214</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.06071164369660669</v>
+        <v>0.06071164369660668</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04614479082401285</v>
+        <v>0.04690488918738475</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07976394689367773</v>
+        <v>0.0796082128526131</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>483023</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>470618</v>
+        <v>470110</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>492317</v>
+        <v>491813</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9488062987014502</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9244382755503293</v>
+        <v>0.9234419940995817</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9670632431999618</v>
+        <v>0.9660727593781634</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>425</v>
@@ -1050,19 +1050,19 @@
         <v>333626</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>322895</v>
+        <v>322226</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>341142</v>
+        <v>341558</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.925841836654071</v>
+        <v>0.9258418366540713</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8960616393410782</v>
+        <v>0.8942059072447706</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9466991079662799</v>
+        <v>0.9478528623141232</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>817</v>
@@ -1071,19 +1071,19 @@
         <v>816648</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>800084</v>
+        <v>800219</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>829313</v>
+        <v>828652</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9392883563033934</v>
+        <v>0.9392883563033932</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9202360531063224</v>
+        <v>0.9203917871473867</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9538552091759872</v>
+        <v>0.9530951108126153</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>30392</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21008</v>
+        <v>20280</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43186</v>
+        <v>44250</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.04873506141670588</v>
+        <v>0.0487350614167059</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03368692073793489</v>
+        <v>0.03251928740778112</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06925088948886186</v>
+        <v>0.07095644648773608</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -1196,19 +1196,19 @@
         <v>17882</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12048</v>
+        <v>11540</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25337</v>
+        <v>25050</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03669479482398687</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0247234846946613</v>
+        <v>0.02368127684416781</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05199144381956991</v>
+        <v>0.05140289659103069</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -1217,19 +1217,19 @@
         <v>48274</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36212</v>
+        <v>36163</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>61655</v>
+        <v>61736</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04345352325071758</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03259625309816268</v>
+        <v>0.03255176657574169</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05549766030101652</v>
+        <v>0.05557131957496405</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>593227</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>580433</v>
+        <v>579369</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>602611</v>
+        <v>603339</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9512649385832939</v>
+        <v>0.951264938583294</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9307491105111382</v>
+        <v>0.9290435535122638</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9663130792620651</v>
+        <v>0.9674807125922187</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>642</v>
@@ -1267,19 +1267,19 @@
         <v>469439</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>461984</v>
+        <v>462271</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>475273</v>
+        <v>475781</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9633052051760131</v>
+        <v>0.963305205176013</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9480085561804302</v>
+        <v>0.9485971034089692</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9752765153053388</v>
+        <v>0.9763187231558321</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1169</v>
@@ -1288,19 +1288,19 @@
         <v>1062666</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1049285</v>
+        <v>1049204</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1074728</v>
+        <v>1074777</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9565464767492823</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9445023396989835</v>
+        <v>0.944428680425036</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9674037469018374</v>
+        <v>0.9674482334242583</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>11184</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5500</v>
+        <v>5138</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20651</v>
+        <v>20543</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.01890706210615419</v>
+        <v>0.0189070621061542</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009297870638193088</v>
+        <v>0.008685468584696585</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03491237988841892</v>
+        <v>0.03472885638002511</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -1413,19 +1413,19 @@
         <v>16852</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10409</v>
+        <v>10927</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26323</v>
+        <v>27583</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03606705793735186</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02227810143452871</v>
+        <v>0.0233864349517431</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05633638879150438</v>
+        <v>0.05903336690801261</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -1434,19 +1434,19 @@
         <v>28036</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18994</v>
+        <v>19284</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40901</v>
+        <v>41316</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02648003330817631</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01793990319816658</v>
+        <v>0.01821348412338352</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03863068737490317</v>
+        <v>0.03902242416793043</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>580334</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>570867</v>
+        <v>570975</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>586018</v>
+        <v>586380</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9810929378938458</v>
+        <v>0.9810929378938459</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.965087620111581</v>
+        <v>0.965271143619975</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9907021293618068</v>
+        <v>0.9913145314153033</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>629</v>
@@ -1484,19 +1484,19 @@
         <v>450399</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>440928</v>
+        <v>439668</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>456842</v>
+        <v>456324</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9639329420626482</v>
+        <v>0.9639329420626481</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9436636112084956</v>
+        <v>0.9409666330919865</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9777218985654713</v>
+        <v>0.9766135650482568</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1142</v>
@@ -1505,19 +1505,19 @@
         <v>1030733</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1017868</v>
+        <v>1017453</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1039775</v>
+        <v>1039485</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9735199666918236</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9613693126250966</v>
+        <v>0.9609775758320696</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9820600968018334</v>
+        <v>0.9817865158766165</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>80886</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>64397</v>
+        <v>63807</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103003</v>
+        <v>101736</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04252941927316132</v>
+        <v>0.0425294192731613</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03385933031930181</v>
+        <v>0.03354936402949563</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.054158402213745</v>
+        <v>0.05349198228878354</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>115</v>
@@ -1630,19 +1630,19 @@
         <v>85608</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>71531</v>
+        <v>69990</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>102335</v>
+        <v>103307</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.05765430927053673</v>
+        <v>0.0576543092705367</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04817393752084689</v>
+        <v>0.04713612635672203</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06891938995872327</v>
+        <v>0.06957411647770909</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>192</v>
@@ -1651,19 +1651,19 @@
         <v>166494</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>141988</v>
+        <v>141928</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>193373</v>
+        <v>193729</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04916063214326322</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04192469454302671</v>
+        <v>0.04190695070022223</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05709704461384315</v>
+        <v>0.05720206201648201</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>1821005</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1798888</v>
+        <v>1800155</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1837494</v>
+        <v>1838084</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9574705807268388</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9458415977862548</v>
+        <v>0.9465080177112164</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9661406696806982</v>
+        <v>0.9664506359705042</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1873</v>
@@ -1701,19 +1701,19 @@
         <v>1399243</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1382516</v>
+        <v>1381544</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1413320</v>
+        <v>1414861</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9423456907294633</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9310806100412767</v>
+        <v>0.9304258835222905</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9518260624791529</v>
+        <v>0.952863873643278</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3436</v>
@@ -1722,19 +1722,19 @@
         <v>3220248</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3193369</v>
+        <v>3193013</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3244754</v>
+        <v>3244814</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9508393678567367</v>
+        <v>0.950839367856737</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9429029553861575</v>
+        <v>0.942797937983518</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9580753054569734</v>
+        <v>0.9580930492997777</v>
       </c>
     </row>
     <row r="18">
